--- a/Arquivos/Emails.xlsx
+++ b/Arquivos/Emails.xlsx
@@ -28,7 +28,7 @@
     <t>Helena</t>
   </si>
   <si>
-    <t>be7ferrao@gmaill.com+helena@gmail.com</t>
+    <t>helena@gmail.com</t>
   </si>
   <si>
     <t>Shopping Midway Mall</t>
@@ -37,7 +37,7 @@
     <t>Alice</t>
   </si>
   <si>
-    <t>be7ferrao@gmaill.com+bernardo@gmail.com</t>
+    <t>bernardo@gmail.com</t>
   </si>
   <si>
     <t>Norte Shopping</t>
@@ -46,7 +46,7 @@
     <t>Laura</t>
   </si>
   <si>
-    <t>be7ferrao@gmaill.com+rafael@gmail.com</t>
+    <t>rafael@gmail.com</t>
   </si>
   <si>
     <t>Shopping Iguatemi Fortaleza</t>
@@ -55,7 +55,7 @@
     <t>Manuela</t>
   </si>
   <si>
-    <t>be7ferrao@gmaill.com+caio@gmail.com</t>
+    <t>caio@gmail.com</t>
   </si>
   <si>
     <t>Shopping União de Osasco</t>
@@ -64,7 +64,7 @@
     <t>Valentina</t>
   </si>
   <si>
-    <t>be7ferrao@gmaill.com</t>
+    <t>be7ferrao@gmail.com</t>
   </si>
   <si>
     <t>Shopping Center Interlagos</t>
